--- a/Mass-model/Mass model/Masses.xlsx
+++ b/Mass-model/Mass model/Masses.xlsx
@@ -334,7 +334,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -347,7 +347,7 @@
         <v>1</v>
       </c>
       <c r="C1">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -358,7 +358,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -369,7 +369,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -380,7 +380,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -391,7 +391,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -424,7 +424,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>500</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Mass-model/Mass model/Masses.xlsx
+++ b/Mass-model/Mass model/Masses.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,11 +330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -352,10 +352,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -363,10 +363,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -374,10 +374,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>50</v>
@@ -385,10 +385,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>50</v>
@@ -407,10 +407,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -418,10 +418,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>50</v>
@@ -429,10 +429,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>50</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -462,10 +462,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -473,10 +473,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>50</v>
